--- a/biology/Médecine/Jean-Noël_Missa/Jean-Noël_Missa.xlsx
+++ b/biology/Médecine/Jean-Noël_Missa/Jean-Noël_Missa.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Jean-No%C3%ABl_Missa</t>
+          <t>Jean-Noël_Missa</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Jean-Noël Missa, né le 16 septembre 1960 à Uccle, est un universitaire et philosophe belge.
 Il est actuellement professeur à l'Université libre de Bruxelles ainsi qu'à l'Université de Mons et directeur de recherches au Fonds national de la recherche scientifique.
@@ -495,7 +507,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Jean-No%C3%ABl_Missa</t>
+          <t>Jean-Noël_Missa</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -513,11 +525,13 @@
           <t>Formation et parcours académique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Docteur en médecine (1985) et docteur en philosophie (1992), professeur à l'université libre de Bruxelles et maître de recherches au Fonds national de la recherche scientifique (FNRS).
-Codirecteur du Centre de recherches interdisciplinaires en bioéthique (CRIB)[1]
-Membre du Comité consultatif de bioéthique de Belgique[2] (CCBB)
+Codirecteur du Centre de recherches interdisciplinaires en bioéthique (CRIB)
+Membre du Comité consultatif de bioéthique de Belgique (CCBB)
 En 2002-2003, il a été Fulbright Visiting Research Scholar à l'université de New York
 Ancien président de la Société belge de philosophie
 Actuel président de la Société pour la philosophie de la technique
@@ -531,7 +545,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Jean-No%C3%ABl_Missa</t>
+          <t>Jean-Noël_Missa</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -549,10 +563,12 @@
           <t>Prix et distinctions</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Il a obtenu le prix Frans Jonckheere sur l’histoire de la médecine de l’Académie royale de médecine de Belgique en 2008, pour son ouvrage Naissance de la psychiatrie biologique
-Il est membre de l'Académie royale des sciences, des lettres et des beaux-arts de Belgique (Classe Technologie et Société), élu le 29 mai 2009[3].</t>
+Il est membre de l'Académie royale des sciences, des lettres et des beaux-arts de Belgique (Classe Technologie et Société), élu le 29 mai 2009.</t>
         </is>
       </c>
     </row>
